--- a/Pricess2.xlsx
+++ b/Pricess2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="12645" windowHeight="12240"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="12645" windowHeight="12240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Price1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="172">
   <si>
     <t xml:space="preserve">Товариство з обмеженою відповідальністью  </t>
   </si>
@@ -205,13 +205,10 @@
     <t xml:space="preserve"> ADM</t>
   </si>
   <si>
-    <t>101.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ціни дійсні на </t>
   </si>
   <si>
-    <t>30-03-22</t>
+    <t>28-04-22</t>
   </si>
   <si>
     <t xml:space="preserve">      e-mail: sales2@larus.in.ua</t>
@@ -340,184 +337,205 @@
     <t>Суміш росл. жирів (рафінов.) ACOMIX DUO ААК Швеція 25 кг</t>
   </si>
   <si>
+    <t>28,04,22</t>
+  </si>
+  <si>
+    <t>п/п</t>
+  </si>
+  <si>
+    <t>о/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price at  </t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>Никопольс х\з # Никополь</t>
+  </si>
+  <si>
+    <t>Черниковский х-к #  Чернигов</t>
+  </si>
+  <si>
+    <t>Столичный кондитер # Киев</t>
+  </si>
+  <si>
+    <t>Черкассы-Хлеб # Черкассы</t>
+  </si>
+  <si>
+    <t>Молочный дом # Павлоград</t>
+  </si>
+  <si>
+    <t>Юрия # Черкассы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Паста и Баста # Киев </t>
+  </si>
+  <si>
+    <t>ПродимПекс # Одесса</t>
+  </si>
+  <si>
+    <t>Калачи ПП # Чернигов</t>
+  </si>
+  <si>
+    <t>Первомайский МКК # Первомайск</t>
+  </si>
+  <si>
+    <t>Олком</t>
+  </si>
+  <si>
+    <t>14-30</t>
+  </si>
+  <si>
+    <t>Запорожская КФ # Запорожье</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Три Медведя # Киев</t>
+  </si>
+  <si>
+    <t>Херсонская КФ # Херсон</t>
+  </si>
+  <si>
+    <t>Лагода #Киев</t>
+  </si>
+  <si>
+    <t>Мариам-С # Киев</t>
+  </si>
+  <si>
+    <t>Лкостайл # Киев</t>
+  </si>
+  <si>
+    <t>Лукас # Кременчуг</t>
+  </si>
+  <si>
+    <t>Дата: Обязательно писать ноли!</t>
+  </si>
+  <si>
+    <t>Доллар</t>
+  </si>
+  <si>
+    <t>Доллар/Пред</t>
+  </si>
+  <si>
+    <t>Эвро</t>
+  </si>
+  <si>
+    <t>Эвро/Пред</t>
+  </si>
+  <si>
+    <t>14,01,21</t>
+  </si>
+  <si>
+    <t>15,01,21</t>
+  </si>
+  <si>
+    <t>18,01,21</t>
+  </si>
+  <si>
+    <t>19,01,21</t>
+  </si>
+  <si>
+    <t>20,01,21</t>
+  </si>
+  <si>
+    <t>21,01,21</t>
+  </si>
+  <si>
+    <t>25,01,21</t>
+  </si>
+  <si>
+    <t>26,01,21</t>
+  </si>
+  <si>
+    <t>29,01,21</t>
+  </si>
+  <si>
+    <t>01,02,21</t>
+  </si>
+  <si>
+    <t>02,02,21</t>
+  </si>
+  <si>
+    <t>04,02,21</t>
+  </si>
+  <si>
+    <t>05,02,21</t>
+  </si>
+  <si>
+    <t>08,02,21</t>
+  </si>
+  <si>
+    <t>10,02,21</t>
+  </si>
+  <si>
+    <t>11,02,21</t>
+  </si>
+  <si>
+    <t>16,02,21</t>
+  </si>
+  <si>
+    <t>17,02,21</t>
+  </si>
+  <si>
+    <t>18,02,21</t>
+  </si>
+  <si>
+    <t>09,03,21</t>
+  </si>
+  <si>
+    <t>12,03,21</t>
+  </si>
+  <si>
+    <t>15,03,21</t>
+  </si>
+  <si>
+    <t>17,03,21</t>
+  </si>
+  <si>
+    <t>18,03,21</t>
+  </si>
+  <si>
+    <t>19,03,21</t>
+  </si>
+  <si>
+    <t>08,04,21</t>
+  </si>
+  <si>
+    <t>09,04,21</t>
+  </si>
+  <si>
+    <t>14,04,21</t>
+  </si>
+  <si>
+    <t>15,04,21</t>
+  </si>
+  <si>
+    <t>16,04,21</t>
+  </si>
+  <si>
     <t>30,03,22</t>
   </si>
   <si>
-    <t>п/п</t>
-  </si>
-  <si>
-    <t>о/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price at  </t>
-  </si>
-  <si>
-    <t>Dollar</t>
-  </si>
-  <si>
-    <t>Euro</t>
-  </si>
-  <si>
-    <t>Никопольс х\з # Никополь</t>
-  </si>
-  <si>
-    <t>Черниковский х-к #  Чернигов</t>
-  </si>
-  <si>
-    <t>Столичный кондитер # Киев</t>
-  </si>
-  <si>
-    <t>Черкассы-Хлеб # Черкассы</t>
-  </si>
-  <si>
-    <t>Молочный дом # Павлоград</t>
-  </si>
-  <si>
-    <t>Юрия # Черкассы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Паста и Баста # Киев </t>
-  </si>
-  <si>
-    <t>ПродимПекс # Одесса</t>
-  </si>
-  <si>
-    <t>Калачи ПП # Чернигов</t>
-  </si>
-  <si>
-    <t>Первомайский МКК # Первомайск</t>
-  </si>
-  <si>
-    <t>Олком</t>
-  </si>
-  <si>
-    <t>14-30</t>
-  </si>
-  <si>
-    <t>Запорожская КФ # Запорожье</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Три Медведя # Киев</t>
-  </si>
-  <si>
-    <t>Херсонская КФ # Херсон</t>
-  </si>
-  <si>
-    <t>Лагода #Киев</t>
-  </si>
-  <si>
-    <t>Мариам-С # Киев</t>
-  </si>
-  <si>
-    <t>Лкостайл # Киев</t>
-  </si>
-  <si>
-    <t>Лукас # Кременчуг</t>
-  </si>
-  <si>
-    <t>Дата: Обязательно писать ноли!</t>
-  </si>
-  <si>
-    <t>Доллар</t>
-  </si>
-  <si>
-    <t>Доллар/Пред</t>
-  </si>
-  <si>
-    <t>Эвро</t>
-  </si>
-  <si>
-    <t>Эвро/Пред</t>
-  </si>
-  <si>
-    <t>14,01,21</t>
-  </si>
-  <si>
-    <t>15,01,21</t>
-  </si>
-  <si>
-    <t>18,01,21</t>
-  </si>
-  <si>
-    <t>19,01,21</t>
-  </si>
-  <si>
-    <t>20,01,21</t>
-  </si>
-  <si>
-    <t>21,01,21</t>
-  </si>
-  <si>
-    <t>25,01,21</t>
-  </si>
-  <si>
-    <t>26,01,21</t>
-  </si>
-  <si>
-    <t>29,01,21</t>
-  </si>
-  <si>
-    <t>01,02,21</t>
-  </si>
-  <si>
-    <t>02,02,21</t>
-  </si>
-  <si>
-    <t>04,02,21</t>
-  </si>
-  <si>
-    <t>05,02,21</t>
-  </si>
-  <si>
-    <t>08,02,21</t>
-  </si>
-  <si>
-    <t>10,02,21</t>
-  </si>
-  <si>
-    <t>11,02,21</t>
-  </si>
-  <si>
-    <t>16,02,21</t>
-  </si>
-  <si>
-    <t>17,02,21</t>
-  </si>
-  <si>
-    <t>18,02,21</t>
-  </si>
-  <si>
-    <t>09,03,21</t>
-  </si>
-  <si>
-    <t>12,03,21</t>
-  </si>
-  <si>
-    <t>15,03,21</t>
-  </si>
-  <si>
-    <t>17,03,21</t>
-  </si>
-  <si>
-    <t>18,03,21</t>
-  </si>
-  <si>
-    <t>19,03,21</t>
-  </si>
-  <si>
-    <t>08,04,21</t>
-  </si>
-  <si>
-    <t>09,04,21</t>
-  </si>
-  <si>
-    <t>14,04,21</t>
-  </si>
-  <si>
-    <t>15,04,21</t>
-  </si>
-  <si>
-    <t>16,04,21</t>
+    <t>31,03,22</t>
+  </si>
+  <si>
+    <t>05,04,22</t>
+  </si>
+  <si>
+    <t>07,04,22</t>
+  </si>
+  <si>
+    <t>11,04,22</t>
+  </si>
+  <si>
+    <t>13,04,22</t>
+  </si>
+  <si>
+    <t>03,05,22</t>
   </si>
 </sst>
 </file>
@@ -2197,8 +2215,8 @@
   </sheetPr>
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="68" zoomScaleNormal="85" zoomScaleSheetLayoutView="68" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A23" zoomScale="68" zoomScaleNormal="85" zoomScaleSheetLayoutView="68" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" customHeight="1"/>
@@ -2338,7 +2356,7 @@
         <v>8</v>
       </c>
       <c r="P9" s="157">
-        <v>81.7</v>
+        <v>82.5</v>
       </c>
       <c r="Q9" s="156" t="s">
         <v>14</v>
@@ -2369,7 +2387,7 @@
       </c>
       <c r="N10" s="216"/>
       <c r="P10" s="217">
-        <v>109.4</v>
+        <v>110.6</v>
       </c>
       <c r="Q10" s="218" t="s">
         <v>14</v>
@@ -2401,7 +2419,7 @@
       <c r="N11" s="236"/>
       <c r="O11" s="236"/>
       <c r="P11" s="157">
-        <v>114.3</v>
+        <v>115.5</v>
       </c>
       <c r="Q11" s="156" t="s">
         <v>14</v>
@@ -2432,7 +2450,7 @@
       </c>
       <c r="N12" s="216"/>
       <c r="P12" s="217">
-        <v>163.19999999999999</v>
+        <v>165.1</v>
       </c>
       <c r="Q12" s="218" t="s">
         <v>14</v>
@@ -2441,7 +2459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="27.75" customHeight="1">
+    <row r="13" spans="1:19" ht="31.5" customHeight="1">
       <c r="A13" s="152"/>
       <c r="F13" s="20" t="s">
         <v>24</v>
@@ -2464,7 +2482,7 @@
       <c r="N13" s="236"/>
       <c r="O13" s="236"/>
       <c r="P13" s="157">
-        <v>104.5</v>
+        <v>105.7</v>
       </c>
       <c r="Q13" s="156" t="s">
         <v>14</v>
@@ -2473,7 +2491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="27.75" customHeight="1">
+    <row r="14" spans="1:19" ht="8.25" customHeight="1">
       <c r="A14" s="152"/>
       <c r="F14" s="212" t="s">
         <v>24</v>
@@ -2495,7 +2513,7 @@
       </c>
       <c r="N14" s="216"/>
       <c r="P14" s="158">
-        <v>104.5</v>
+        <v>105.7</v>
       </c>
       <c r="Q14" s="218" t="s">
         <v>14</v>
@@ -2527,7 +2545,7 @@
       <c r="N15" s="236"/>
       <c r="O15" s="236"/>
       <c r="P15" s="157">
-        <v>129</v>
+        <v>130.4</v>
       </c>
       <c r="Q15" s="156" t="s">
         <v>14</v>
@@ -2558,7 +2576,7 @@
       </c>
       <c r="N16" s="216"/>
       <c r="P16" s="217">
-        <v>127.3</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="Q16" s="218" t="s">
         <v>14</v>
@@ -2590,7 +2608,7 @@
       <c r="N17" s="236"/>
       <c r="O17" s="236"/>
       <c r="P17" s="157">
-        <v>115.9</v>
+        <v>117.2</v>
       </c>
       <c r="Q17" s="156" t="s">
         <v>14</v>
@@ -2621,7 +2639,7 @@
       </c>
       <c r="N18" s="216"/>
       <c r="P18" s="217">
-        <v>115.9</v>
+        <v>117.2</v>
       </c>
       <c r="Q18" s="218" t="s">
         <v>14</v>
@@ -2653,7 +2671,7 @@
       <c r="N19" s="236"/>
       <c r="O19" s="236"/>
       <c r="P19" s="157">
-        <v>115.9</v>
+        <v>117.2</v>
       </c>
       <c r="Q19" s="156" t="s">
         <v>14</v>
@@ -2662,7 +2680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="27.75" customHeight="1">
+    <row r="20" spans="1:19" ht="11.25" customHeight="1">
       <c r="A20" s="152"/>
       <c r="F20" s="212" t="s">
         <v>28</v>
@@ -2684,7 +2702,7 @@
       </c>
       <c r="N20" s="216"/>
       <c r="P20" s="217">
-        <v>130.6</v>
+        <v>132.1</v>
       </c>
       <c r="Q20" s="218" t="s">
         <v>14</v>
@@ -2715,7 +2733,7 @@
       <c r="N21" s="236"/>
       <c r="O21" s="236"/>
       <c r="P21" s="157">
-        <v>166.5</v>
+        <v>168.3</v>
       </c>
       <c r="Q21" s="156" t="s">
         <v>14</v>
@@ -2745,7 +2763,7 @@
       </c>
       <c r="N22" s="216"/>
       <c r="P22" s="217">
-        <v>163.19999999999999</v>
+        <v>165.1</v>
       </c>
       <c r="Q22" s="218" t="s">
         <v>14</v>
@@ -2776,7 +2794,7 @@
       <c r="N23" s="236"/>
       <c r="O23" s="236"/>
       <c r="P23" s="157">
-        <v>156.69999999999999</v>
+        <v>158.5</v>
       </c>
       <c r="Q23" s="156" t="s">
         <v>14</v>
@@ -2811,7 +2829,7 @@
       </c>
       <c r="N24" s="216"/>
       <c r="P24" s="217">
-        <v>156.69999999999999</v>
+        <v>158.5</v>
       </c>
       <c r="Q24" s="218" t="s">
         <v>14</v>
@@ -2847,7 +2865,7 @@
       <c r="N25" s="236"/>
       <c r="O25" s="236"/>
       <c r="P25" s="157">
-        <v>259.89999999999998</v>
+        <v>261.10000000000002</v>
       </c>
       <c r="Q25" s="156" t="s">
         <v>14</v>
@@ -2882,7 +2900,7 @@
       </c>
       <c r="N26" s="216"/>
       <c r="P26" s="217">
-        <v>259.89999999999998</v>
+        <v>261.10000000000002</v>
       </c>
       <c r="Q26" s="218" t="s">
         <v>14</v>
@@ -2918,7 +2936,7 @@
       <c r="N27" s="236"/>
       <c r="O27" s="236"/>
       <c r="P27" s="157">
-        <v>142</v>
+        <v>142.6</v>
       </c>
       <c r="Q27" s="156" t="s">
         <v>14</v>
@@ -2953,7 +2971,7 @@
       </c>
       <c r="N28" s="216"/>
       <c r="P28" s="217">
-        <v>134.5</v>
+        <v>135.1</v>
       </c>
       <c r="Q28" s="218" t="s">
         <v>14</v>
@@ -2985,7 +3003,7 @@
       <c r="N29" s="236"/>
       <c r="O29" s="236"/>
       <c r="P29" s="239">
-        <v>83.8</v>
+        <v>84</v>
       </c>
       <c r="Q29" s="156" t="s">
         <v>14</v>
@@ -3016,8 +3034,8 @@
       </c>
       <c r="N30" s="232"/>
       <c r="O30" s="232"/>
-      <c r="P30" s="234" t="s">
-        <v>61</v>
+      <c r="P30" s="234">
+        <v>115</v>
       </c>
       <c r="Q30" s="235" t="s">
         <v>14</v>
@@ -3044,11 +3062,11 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="210" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J32" s="27"/>
       <c r="K32" s="211" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L32" s="208" t="s">
         <v>8</v>
@@ -3077,13 +3095,13 @@
     <row r="34" spans="3:19" ht="34.5" customHeight="1">
       <c r="F34" s="15"/>
       <c r="H34" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I34" s="16"/>
       <c r="J34" s="17"/>
       <c r="K34" s="16"/>
       <c r="L34" s="200" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
@@ -3096,14 +3114,14 @@
       <c r="C35" s="160"/>
       <c r="F35" s="32"/>
       <c r="G35" s="199" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="199"/>
       <c r="J35" s="34"/>
       <c r="K35" s="35"/>
       <c r="L35" s="201" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M35" s="35"/>
       <c r="N35" s="35"/>
@@ -3131,7 +3149,7 @@
       <c r="I37" s="184"/>
       <c r="J37" s="185"/>
       <c r="K37" s="186" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L37" s="203"/>
       <c r="M37" s="183"/>
@@ -3158,7 +3176,7 @@
       <c r="H39" s="178"/>
       <c r="I39" s="174"/>
       <c r="J39" s="175" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K39" s="175"/>
       <c r="L39" s="204"/>
@@ -3176,7 +3194,7 @@
         <v>8</v>
       </c>
       <c r="H40" s="179" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I40" s="216"/>
       <c r="J40" s="161"/>
@@ -3189,7 +3207,7 @@
       <c r="F41" s="18"/>
       <c r="G41" s="236"/>
       <c r="H41" s="180" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I41" s="236"/>
       <c r="J41" s="178"/>
@@ -3209,7 +3227,7 @@
       <c r="H42" s="181"/>
       <c r="I42" s="171"/>
       <c r="J42" s="170" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K42" s="171"/>
       <c r="L42" s="207"/>
@@ -3231,21 +3249,21 @@
       <c r="G48" s="213"/>
       <c r="H48" s="213"/>
       <c r="I48" s="214" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J48" s="213"/>
       <c r="K48" s="215">
         <v>0.54</v>
       </c>
       <c r="L48" s="214" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M48" s="216" t="s">
         <v>43</v>
       </c>
       <c r="N48" s="216"/>
       <c r="P48" s="217">
-        <v>156.69999999999999</v>
+        <v>158.5</v>
       </c>
       <c r="Q48" s="218" t="s">
         <v>14</v>
@@ -3272,8 +3290,8 @@
   </sheetPr>
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="B10" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
@@ -3294,7 +3312,7 @@
     <row r="1" spans="1:16" s="151" customFormat="1" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="8"/>
       <c r="B1" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -3303,34 +3321,34 @@
       <c r="G1" s="40"/>
       <c r="H1" s="41"/>
       <c r="I1" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="K1" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="L1" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="M1" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="N1" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="P1" s="46" t="s">
         <v>82</v>
-      </c>
-      <c r="P1" s="46" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="22.5" customHeight="1" thickTop="1">
       <c r="A2" s="1"/>
       <c r="B2" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -3345,19 +3363,19 @@
         <v>2.5</v>
       </c>
       <c r="K2" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="50">
+        <v>82.5</v>
+      </c>
+      <c r="M2" s="50">
+        <v>94.25</v>
+      </c>
+      <c r="N2" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="L2" s="50">
-        <v>81.5</v>
-      </c>
-      <c r="M2" s="50">
-        <v>0</v>
-      </c>
-      <c r="N2" s="50" t="s">
-        <v>86</v>
-      </c>
       <c r="O2" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P2" s="153">
         <v>1</v>
@@ -3366,7 +3384,7 @@
     <row r="3" spans="1:16" ht="22.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="54"/>
       <c r="D3" s="54"/>
@@ -3378,22 +3396,22 @@
         <v>0</v>
       </c>
       <c r="J3" s="57">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K3" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="57">
+        <v>110.55</v>
+      </c>
+      <c r="M3" s="58">
+        <v>126.295</v>
+      </c>
+      <c r="N3" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="57">
-        <v>109.21</v>
-      </c>
-      <c r="M3" s="58">
-        <v>0</v>
-      </c>
-      <c r="N3" s="58" t="s">
-        <v>86</v>
-      </c>
       <c r="O3" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P3" s="154">
         <v>2</v>
@@ -3402,7 +3420,7 @@
     <row r="4" spans="1:16" ht="22.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="61"/>
       <c r="D4" s="61"/>
@@ -3414,22 +3432,22 @@
         <v>0</v>
       </c>
       <c r="J4" s="51">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K4" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="51">
+        <v>115.5</v>
+      </c>
+      <c r="M4" s="63">
+        <v>131.94999999999999</v>
+      </c>
+      <c r="N4" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="51">
-        <v>114.1</v>
-      </c>
-      <c r="M4" s="63">
-        <v>0</v>
-      </c>
-      <c r="N4" s="64" t="s">
-        <v>86</v>
-      </c>
       <c r="O4" s="65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P4" s="102">
         <v>3</v>
@@ -3438,7 +3456,7 @@
     <row r="5" spans="1:16" ht="22.5" customHeight="1">
       <c r="A5" s="152"/>
       <c r="B5" s="66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="67"/>
       <c r="D5" s="67"/>
@@ -3453,19 +3471,19 @@
         <v>5</v>
       </c>
       <c r="K5" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="57">
+        <v>165</v>
+      </c>
+      <c r="M5" s="58">
+        <v>188.5</v>
+      </c>
+      <c r="N5" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="57">
-        <v>163</v>
-      </c>
-      <c r="M5" s="58">
-        <v>0</v>
-      </c>
-      <c r="N5" s="59" t="s">
-        <v>86</v>
-      </c>
       <c r="O5" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P5" s="154">
         <v>4</v>
@@ -3474,7 +3492,7 @@
     <row r="6" spans="1:16" ht="22.5" customHeight="1">
       <c r="A6" s="152"/>
       <c r="B6" s="69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="70"/>
       <c r="D6" s="70"/>
@@ -3486,22 +3504,22 @@
         <v>0</v>
       </c>
       <c r="J6" s="51">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K6" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="51">
+        <v>105.6</v>
+      </c>
+      <c r="M6" s="63">
+        <v>120.64</v>
+      </c>
+      <c r="N6" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="L6" s="51">
-        <v>104.32</v>
-      </c>
-      <c r="M6" s="63">
-        <v>0</v>
-      </c>
-      <c r="N6" s="65" t="s">
-        <v>86</v>
-      </c>
       <c r="O6" s="65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P6" s="102">
         <v>5</v>
@@ -3510,7 +3528,7 @@
     <row r="7" spans="1:16" ht="22.5" customHeight="1">
       <c r="A7" s="152"/>
       <c r="B7" s="72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="73"/>
       <c r="D7" s="73"/>
@@ -3522,22 +3540,22 @@
         <v>0</v>
       </c>
       <c r="J7" s="76">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="K7" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="76">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="M7" s="77">
+        <v>147.03</v>
+      </c>
+      <c r="N7" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="L7" s="76">
-        <v>127.14</v>
-      </c>
-      <c r="M7" s="77">
-        <v>0</v>
-      </c>
-      <c r="N7" s="78" t="s">
-        <v>86</v>
-      </c>
       <c r="O7" s="79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P7" s="154">
         <v>8</v>
@@ -3546,7 +3564,7 @@
     <row r="8" spans="1:16" ht="22.5" customHeight="1">
       <c r="A8" s="152"/>
       <c r="B8" s="69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="70"/>
       <c r="D8" s="70"/>
@@ -3558,22 +3576,22 @@
         <v>0</v>
       </c>
       <c r="J8" s="51">
-        <v>3.95</v>
+        <v>4.25</v>
       </c>
       <c r="K8" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="51">
+        <v>130.35</v>
+      </c>
+      <c r="M8" s="63">
+        <v>148.91499999999999</v>
+      </c>
+      <c r="N8" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="L8" s="51">
-        <v>128.77000000000001</v>
-      </c>
-      <c r="M8" s="63">
-        <v>0</v>
-      </c>
-      <c r="N8" s="64" t="s">
-        <v>86</v>
-      </c>
       <c r="O8" s="65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P8" s="102">
         <v>7</v>
@@ -3582,7 +3600,7 @@
     <row r="9" spans="1:16" ht="22.5" customHeight="1">
       <c r="A9" s="152"/>
       <c r="B9" s="80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="81"/>
       <c r="D9" s="81"/>
@@ -3597,19 +3615,19 @@
         <v>3.2</v>
       </c>
       <c r="K9" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="57">
+        <v>105.6</v>
+      </c>
+      <c r="M9" s="58">
+        <v>120.64</v>
+      </c>
+      <c r="N9" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="L9" s="57">
-        <v>104.32</v>
-      </c>
-      <c r="M9" s="58">
-        <v>0</v>
-      </c>
-      <c r="N9" s="59" t="s">
-        <v>86</v>
-      </c>
       <c r="O9" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P9" s="155">
         <v>6</v>
@@ -3618,7 +3636,7 @@
     <row r="10" spans="1:16" ht="22.5" customHeight="1">
       <c r="A10" s="152"/>
       <c r="B10" s="83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="84"/>
       <c r="D10" s="84"/>
@@ -3633,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L10" s="51">
         <v>0</v>
@@ -3642,10 +3660,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O10" s="65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P10" s="102">
         <v>19</v>
@@ -3654,7 +3672,7 @@
     <row r="11" spans="1:16" ht="22.5" customHeight="1">
       <c r="A11" s="152"/>
       <c r="B11" s="80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="81"/>
       <c r="D11" s="81"/>
@@ -3666,22 +3684,22 @@
         <v>0</v>
       </c>
       <c r="J11" s="57">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K11" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="57">
+        <v>117.15</v>
+      </c>
+      <c r="M11" s="58">
+        <v>133.83500000000001</v>
+      </c>
+      <c r="N11" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="L11" s="57">
-        <v>115.73</v>
-      </c>
-      <c r="M11" s="58">
-        <v>0</v>
-      </c>
-      <c r="N11" s="59" t="s">
-        <v>86</v>
-      </c>
       <c r="O11" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P11" s="154">
         <v>9</v>
@@ -3690,7 +3708,7 @@
     <row r="12" spans="1:16" ht="22.5" customHeight="1">
       <c r="A12" s="152"/>
       <c r="B12" s="86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="84"/>
       <c r="D12" s="84"/>
@@ -3705,19 +3723,19 @@
         <v>4</v>
       </c>
       <c r="K12" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="51">
+        <v>132</v>
+      </c>
+      <c r="M12" s="63">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="N12" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="L12" s="51">
-        <v>130.4</v>
-      </c>
-      <c r="M12" s="63">
-        <v>0</v>
-      </c>
-      <c r="N12" s="64" t="s">
-        <v>86</v>
-      </c>
       <c r="O12" s="65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P12" s="102">
         <v>10</v>
@@ -3726,7 +3744,7 @@
     <row r="13" spans="1:16" ht="22.5" customHeight="1">
       <c r="A13" s="152"/>
       <c r="B13" s="80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="81"/>
       <c r="D13" s="81"/>
@@ -3741,19 +3759,19 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="K13" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="57">
+        <v>168.3</v>
+      </c>
+      <c r="M13" s="58">
+        <v>192.27</v>
+      </c>
+      <c r="N13" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="L13" s="57">
-        <v>166.26</v>
-      </c>
-      <c r="M13" s="58">
-        <v>0</v>
-      </c>
-      <c r="N13" s="59" t="s">
-        <v>86</v>
-      </c>
       <c r="O13" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P13" s="154">
         <v>11</v>
@@ -3762,7 +3780,7 @@
     <row r="14" spans="1:16" ht="22.5" customHeight="1">
       <c r="A14" s="152"/>
       <c r="B14" s="87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="88"/>
       <c r="D14" s="88"/>
@@ -3777,19 +3795,19 @@
         <v>5</v>
       </c>
       <c r="K14" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="51">
+        <v>165</v>
+      </c>
+      <c r="M14" s="63">
+        <v>188.5</v>
+      </c>
+      <c r="N14" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="L14" s="51">
-        <v>163</v>
-      </c>
-      <c r="M14" s="63">
-        <v>0</v>
-      </c>
-      <c r="N14" s="64" t="s">
-        <v>86</v>
-      </c>
       <c r="O14" s="65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P14" s="102">
         <v>12</v>
@@ -3798,7 +3816,7 @@
     <row r="15" spans="1:16" ht="22.5" customHeight="1">
       <c r="A15" s="152"/>
       <c r="B15" s="80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="81"/>
       <c r="D15" s="81"/>
@@ -3813,19 +3831,19 @@
         <v>4.8</v>
       </c>
       <c r="K15" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" s="57">
+        <v>158.4</v>
+      </c>
+      <c r="M15" s="58">
+        <v>180.96</v>
+      </c>
+      <c r="N15" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="L15" s="57">
-        <v>156.47999999999999</v>
-      </c>
-      <c r="M15" s="58">
-        <v>0</v>
-      </c>
-      <c r="N15" s="59" t="s">
-        <v>86</v>
-      </c>
       <c r="O15" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P15" s="154">
         <v>13</v>
@@ -3834,7 +3852,7 @@
     <row r="16" spans="1:16" ht="22.5" customHeight="1">
       <c r="A16" s="152"/>
       <c r="B16" s="90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -3849,19 +3867,19 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="K16" s="94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L16" s="94">
-        <v>259.69499999999999</v>
+        <v>261</v>
       </c>
       <c r="M16" s="94">
-        <v>0</v>
+        <v>303.62999999999988</v>
       </c>
       <c r="N16" s="64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O16" s="65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P16" s="102">
         <v>14</v>
@@ -3870,7 +3888,7 @@
     <row r="17" spans="1:24" ht="22.5" customHeight="1">
       <c r="A17" s="152"/>
       <c r="B17" s="80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="81"/>
       <c r="D17" s="81"/>
@@ -3885,19 +3903,19 @@
         <v>4.75</v>
       </c>
       <c r="K17" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L17" s="57">
-        <v>141.78749999999999</v>
+        <v>142.5</v>
       </c>
       <c r="M17" s="58">
-        <v>0</v>
+        <v>165.77500000000001</v>
       </c>
       <c r="N17" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O17" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P17" s="154">
         <v>15</v>
@@ -3906,7 +3924,7 @@
     <row r="18" spans="1:24" ht="22.5" customHeight="1">
       <c r="A18" s="152"/>
       <c r="B18" s="86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="84"/>
       <c r="D18" s="84"/>
@@ -3921,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L18" s="51">
         <v>0</v>
@@ -3930,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="N18" s="64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O18" s="65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P18" s="102">
         <v>18</v>
@@ -3942,7 +3960,7 @@
     <row r="19" spans="1:24" ht="22.5" customHeight="1">
       <c r="A19" s="152"/>
       <c r="B19" s="80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="81"/>
       <c r="D19" s="81"/>
@@ -3954,22 +3972,22 @@
         <v>0</v>
       </c>
       <c r="J19" s="51">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K19" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L19" s="57">
-        <v>134.32499999999999</v>
+        <v>135</v>
       </c>
       <c r="M19" s="58">
-        <v>0</v>
+        <v>157.05000000000001</v>
       </c>
       <c r="N19" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O19" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P19" s="154">
         <v>16</v>
@@ -3977,7 +3995,7 @@
     </row>
     <row r="20" spans="1:24" ht="22.5" customHeight="1" thickBot="1">
       <c r="B20" s="95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="96"/>
       <c r="D20" s="96"/>
@@ -3989,22 +4007,22 @@
         <v>0</v>
       </c>
       <c r="J20" s="51">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="K20" s="98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L20" s="98">
-        <v>83.58</v>
+        <v>84</v>
       </c>
       <c r="M20" s="99">
-        <v>0</v>
+        <v>97.719999999999985</v>
       </c>
       <c r="N20" s="100" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O20" s="101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P20" s="102">
         <v>17</v>
@@ -4012,20 +4030,20 @@
     </row>
     <row r="21" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="D21" s="103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E21" s="104"/>
       <c r="F21" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="104" t="s">
+      <c r="H21" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="106" t="s">
-        <v>109</v>
-      </c>
       <c r="I21" s="107">
-        <v>44650</v>
+        <v>44684</v>
       </c>
       <c r="J21" s="108" t="s">
         <v>8</v>
@@ -4037,26 +4055,26 @@
     <row r="22" spans="1:24" ht="20.25" customHeight="1" thickTop="1">
       <c r="D22" s="110"/>
       <c r="E22" s="111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F22" s="152">
-        <v>29.85</v>
+        <v>30</v>
       </c>
       <c r="G22" s="112">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="H22" s="113"/>
     </row>
     <row r="23" spans="1:24" ht="20.25" customHeight="1" thickBot="1">
       <c r="D23" s="114"/>
       <c r="E23" s="115" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F23" s="116">
-        <v>32.6</v>
+        <v>33</v>
       </c>
       <c r="G23" s="117">
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="H23" s="113"/>
     </row>
@@ -4074,7 +4092,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="120" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25" s="120"/>
       <c r="F25" s="121"/>
@@ -4082,7 +4100,7 @@
         <v>5</v>
       </c>
       <c r="H25" s="122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I25" s="123"/>
     </row>
@@ -4091,7 +4109,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E26" s="125"/>
       <c r="F26" s="126"/>
@@ -4099,7 +4117,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="125" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I26" s="127"/>
       <c r="K26" s="2"/>
@@ -4122,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G27" s="124">
         <v>5</v>
       </c>
       <c r="H27" s="125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I27" s="127"/>
     </row>
@@ -4137,7 +4155,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="125" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E28" s="125"/>
       <c r="F28" s="126"/>
@@ -4145,7 +4163,7 @@
         <v>7</v>
       </c>
       <c r="H28" s="125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I28" s="127"/>
     </row>
@@ -4154,7 +4172,7 @@
         <v>14</v>
       </c>
       <c r="D29" s="125" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E29" s="125"/>
       <c r="F29" s="126"/>
@@ -4162,7 +4180,7 @@
         <v>14</v>
       </c>
       <c r="H29" s="125" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I29" s="127"/>
     </row>
@@ -4171,15 +4189,15 @@
         <v>21</v>
       </c>
       <c r="D30" s="125" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E30" s="125"/>
       <c r="F30" s="126"/>
       <c r="G30" s="124" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="125" t="s">
         <v>123</v>
-      </c>
-      <c r="H30" s="125" t="s">
-        <v>124</v>
       </c>
       <c r="I30" s="127"/>
     </row>
@@ -4188,7 +4206,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E31" s="125"/>
       <c r="F31" s="126"/>
@@ -4196,7 +4214,7 @@
         <v>14</v>
       </c>
       <c r="H31" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I31" s="127"/>
     </row>
@@ -4205,7 +4223,7 @@
         <v>60</v>
       </c>
       <c r="D32" s="125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E32" s="125"/>
       <c r="F32" s="126"/>
@@ -4213,7 +4231,7 @@
         <v>14</v>
       </c>
       <c r="H32" s="125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I32" s="127"/>
     </row>
@@ -4222,7 +4240,7 @@
         <v>14</v>
       </c>
       <c r="D33" s="118" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E33" s="118"/>
       <c r="F33" s="133"/>
@@ -4230,7 +4248,7 @@
         <v>21</v>
       </c>
       <c r="H33" s="118" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I33" s="135"/>
     </row>
@@ -4257,8 +4275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F119"/>
   <sheetViews>
-    <sheetView topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
@@ -4267,30 +4285,30 @@
     <col min="2" max="2" width="33.85546875" style="146" customWidth="1"/>
     <col min="3" max="5" width="22.28515625" style="160" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" style="160" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="160" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="160"/>
+    <col min="7" max="16" width="9.140625" style="160" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="160"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="24.75" customHeight="1">
       <c r="B1" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="136" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="D1" s="136" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="136" t="s">
+      <c r="E1" s="136" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="136" t="s">
+      <c r="F1" s="142" t="s">
         <v>134</v>
-      </c>
-      <c r="F1" s="142" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="24.75" customHeight="1">
       <c r="B2" s="148" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="137">
         <v>5</v>
@@ -4307,7 +4325,7 @@
     </row>
     <row r="3" spans="2:6" ht="24.75" customHeight="1">
       <c r="B3" s="148" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="137">
         <v>28.35</v>
@@ -4324,7 +4342,7 @@
     </row>
     <row r="4" spans="2:6" ht="24.75" customHeight="1">
       <c r="B4" s="148" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="137">
         <v>28.45</v>
@@ -4341,7 +4359,7 @@
     </row>
     <row r="5" spans="2:6" ht="24.75" customHeight="1">
       <c r="B5" s="148" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="137">
         <v>28.5</v>
@@ -4358,7 +4376,7 @@
     </row>
     <row r="6" spans="2:6" ht="24.75" customHeight="1">
       <c r="B6" s="148" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="137">
         <v>28.45</v>
@@ -4375,7 +4393,7 @@
     </row>
     <row r="7" spans="2:6" ht="24.75" customHeight="1">
       <c r="B7" s="148" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="137">
         <v>28.45</v>
@@ -4392,7 +4410,7 @@
     </row>
     <row r="8" spans="2:6" ht="24.75" customHeight="1">
       <c r="B8" s="148" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="137">
         <v>28.45</v>
@@ -4409,7 +4427,7 @@
     </row>
     <row r="9" spans="2:6" ht="24.75" customHeight="1">
       <c r="B9" s="148" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="137">
         <v>28.45</v>
@@ -4426,7 +4444,7 @@
     </row>
     <row r="10" spans="2:6" ht="24.75" customHeight="1">
       <c r="B10" s="148" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="137">
         <v>28.5</v>
@@ -4443,7 +4461,7 @@
     </row>
     <row r="11" spans="2:6" ht="24.75" customHeight="1">
       <c r="B11" s="209" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="137">
         <v>28.45</v>
@@ -4460,7 +4478,7 @@
     </row>
     <row r="12" spans="2:6" ht="24.75" customHeight="1">
       <c r="B12" s="209" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="137">
         <v>28.45</v>
@@ -4477,7 +4495,7 @@
     </row>
     <row r="13" spans="2:6" ht="24.75" customHeight="1">
       <c r="B13" s="209" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" s="137">
         <v>28.25</v>
@@ -4494,7 +4512,7 @@
     </row>
     <row r="14" spans="2:6" ht="24.75" customHeight="1">
       <c r="B14" s="209" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="137">
         <v>28.1</v>
@@ -4511,7 +4529,7 @@
     </row>
     <row r="15" spans="2:6" ht="24.75" customHeight="1">
       <c r="B15" s="209" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="137">
         <v>28.05</v>
@@ -4528,7 +4546,7 @@
     </row>
     <row r="16" spans="2:6" ht="24.75" customHeight="1">
       <c r="B16" s="209" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="137">
         <v>28</v>
@@ -4545,7 +4563,7 @@
     </row>
     <row r="17" spans="2:6" ht="24.75" customHeight="1">
       <c r="B17" s="209" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="137">
         <v>28.15</v>
@@ -4562,7 +4580,7 @@
     </row>
     <row r="18" spans="2:6" ht="24.75" customHeight="1">
       <c r="B18" s="209" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" s="137">
         <v>28.1</v>
@@ -4579,7 +4597,7 @@
     </row>
     <row r="19" spans="2:6" ht="24.75" customHeight="1">
       <c r="B19" s="209" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C19" s="137">
         <v>28.2</v>
@@ -4596,7 +4614,7 @@
     </row>
     <row r="20" spans="2:6" ht="24.75" customHeight="1">
       <c r="B20" s="209" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" s="137">
         <v>28.15</v>
@@ -4613,7 +4631,7 @@
     </row>
     <row r="21" spans="2:6" ht="24.75" customHeight="1">
       <c r="B21" s="149" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C21" s="139">
         <v>28.1</v>
@@ -4630,7 +4648,7 @@
     </row>
     <row r="22" spans="2:6" ht="24.75" customHeight="1">
       <c r="B22" s="149" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C22" s="139">
         <v>28</v>
@@ -4647,7 +4665,7 @@
     </row>
     <row r="23" spans="2:6" ht="24.75" customHeight="1">
       <c r="B23" s="149" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C23" s="139">
         <v>28</v>
@@ -4664,7 +4682,7 @@
     </row>
     <row r="24" spans="2:6" ht="24.75" customHeight="1">
       <c r="B24" s="149" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24" s="139">
         <v>28</v>
@@ -4681,7 +4699,7 @@
     </row>
     <row r="25" spans="2:6" ht="24.75" customHeight="1">
       <c r="B25" s="149" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C25" s="139">
         <v>28</v>
@@ -4698,7 +4716,7 @@
     </row>
     <row r="26" spans="2:6" ht="24.75" customHeight="1">
       <c r="B26" s="149" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C26" s="139">
         <v>28</v>
@@ -4715,7 +4733,7 @@
     </row>
     <row r="27" spans="2:6" ht="24.75" customHeight="1">
       <c r="B27" s="149" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C27" s="139">
         <v>28.25</v>
@@ -4732,7 +4750,7 @@
     </row>
     <row r="28" spans="2:6" ht="24.75" customHeight="1">
       <c r="B28" s="149" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" s="139">
         <v>28.2</v>
@@ -4749,7 +4767,7 @@
     </row>
     <row r="29" spans="2:6" ht="24.75" customHeight="1">
       <c r="B29" s="149" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C29" s="139">
         <v>28.3</v>
@@ -4766,7 +4784,7 @@
     </row>
     <row r="30" spans="2:6" ht="24.75" customHeight="1">
       <c r="B30" s="149" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C30" s="139">
         <v>28</v>
@@ -4783,7 +4801,7 @@
     </row>
     <row r="31" spans="2:6" ht="24.75" customHeight="1">
       <c r="B31" s="149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C31" s="139">
         <v>28.3</v>
@@ -4800,7 +4818,7 @@
     </row>
     <row r="32" spans="2:6" ht="24.75" customHeight="1">
       <c r="B32" s="149" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="C32" s="139">
         <v>29.85</v>
@@ -4816,53 +4834,123 @@
       </c>
     </row>
     <row r="33" spans="2:6" ht="24.75" customHeight="1">
-      <c r="B33" s="150"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="145"/>
+      <c r="B33" s="150" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="140">
+        <v>29.85</v>
+      </c>
+      <c r="D33" s="140">
+        <v>0</v>
+      </c>
+      <c r="E33" s="140">
+        <v>33.25</v>
+      </c>
+      <c r="F33" s="145">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="2:6" ht="24.75" customHeight="1">
-      <c r="B34" s="149"/>
-      <c r="C34" s="139"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="144"/>
+      <c r="B34" s="149" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="139">
+        <v>29.85</v>
+      </c>
+      <c r="D34" s="139">
+        <v>0</v>
+      </c>
+      <c r="E34" s="139">
+        <v>33.15</v>
+      </c>
+      <c r="F34" s="144">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="2:6" ht="24.75" customHeight="1">
-      <c r="B35" s="149"/>
-      <c r="C35" s="139"/>
-      <c r="D35" s="139"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="144"/>
+      <c r="B35" s="149" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="139">
+        <v>30</v>
+      </c>
+      <c r="D35" s="139">
+        <v>0</v>
+      </c>
+      <c r="E35" s="139">
+        <v>33</v>
+      </c>
+      <c r="F35" s="144">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="2:6" ht="24.75" customHeight="1">
-      <c r="B36" s="149"/>
-      <c r="C36" s="139"/>
-      <c r="D36" s="139"/>
-      <c r="E36" s="139"/>
-      <c r="F36" s="144"/>
+      <c r="B36" s="149" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="139">
+        <v>30</v>
+      </c>
+      <c r="D36" s="139">
+        <v>0</v>
+      </c>
+      <c r="E36" s="139">
+        <v>33</v>
+      </c>
+      <c r="F36" s="144">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="2:6" ht="24.75" customHeight="1">
-      <c r="B37" s="149"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="139"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="144"/>
+      <c r="B37" s="149" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="139">
+        <v>30</v>
+      </c>
+      <c r="D37" s="139">
+        <v>0</v>
+      </c>
+      <c r="E37" s="139">
+        <v>33</v>
+      </c>
+      <c r="F37" s="144">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="2:6" ht="24.75" customHeight="1">
-      <c r="B38" s="149"/>
-      <c r="C38" s="139"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="144"/>
+      <c r="B38" s="149" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="139">
+        <v>30</v>
+      </c>
+      <c r="D38" s="139">
+        <v>34.9</v>
+      </c>
+      <c r="E38" s="139">
+        <v>33</v>
+      </c>
+      <c r="F38" s="144">
+        <v>37.700000000000003</v>
+      </c>
     </row>
     <row r="39" spans="2:6" ht="24.75" customHeight="1">
-      <c r="B39" s="149"/>
-      <c r="C39" s="139"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="139"/>
-      <c r="F39" s="144"/>
+      <c r="B39" s="149" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="139">
+        <v>30</v>
+      </c>
+      <c r="D39" s="139">
+        <v>33.5</v>
+      </c>
+      <c r="E39" s="139">
+        <v>33</v>
+      </c>
+      <c r="F39" s="144">
+        <v>35.799999999999997</v>
+      </c>
     </row>
     <row r="40" spans="2:6" ht="24.75" customHeight="1">
       <c r="B40" s="149"/>
